--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1978544.269403824</v>
+        <v>1971533.540287829</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791239</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>358.9054056415473</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -671,7 +671,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>111.8016571146363</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>125.4237525428716</v>
+        <v>182.2937822538457</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.3663780557825</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -832,13 +832,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>182.1515302637886</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>14.92430746828486</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -981,16 +981,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>73.0917716496045</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>89.44450418519025</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.1045920014102</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.07869429520998</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>146.8979419420446</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>367.389554148284</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.84356265118774</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.030693662337179</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>250.3326460681455</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>99.78125614575903</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177839</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246575</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442477</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456087</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>22.64937326058907</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>71.45454637686329</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>78.87181949705628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0961968842576</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>80.88174248510731</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246575</v>
+        <v>42.39270541996166</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>95.4932009668169</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338894</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456087</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227893</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841672</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564646</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596575015</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565028</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434678</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308071</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435641</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.5760187316786</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196101</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380073</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667985</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644711</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883925</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541129</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658322</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.88205970103914</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656646</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678084</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754245</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221371</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988134</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325497</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="39">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,16 +3749,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422874583</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>872.0959742198254</v>
+        <v>1636.674678391053</v>
       </c>
       <c r="C2" t="n">
-        <v>872.0959742198254</v>
+        <v>1636.674678391053</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198254</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>871.5604407383577</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634774</v>
+        <v>454.6660022683354</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793362</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>668.673300197865</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207958</v>
+        <v>1102.089684652129</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.74336884542</v>
+        <v>1102.089684652129</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737748</v>
+        <v>1542.129285544458</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678799</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="U2" t="n">
-        <v>1752.516685113398</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="V2" t="n">
-        <v>1752.516685113398</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="W2" t="n">
-        <v>1381.517650081685</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="X2" t="n">
-        <v>1268.586683299224</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="Y2" t="n">
-        <v>872.0959742198254</v>
+        <v>2037.16942410245</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>718.4298364179177</v>
+        <v>791.4819759082811</v>
       </c>
       <c r="C3" t="n">
-        <v>567.7756059780099</v>
+        <v>640.8277454683733</v>
       </c>
       <c r="D3" t="n">
-        <v>437.6866385994903</v>
+        <v>510.7387780898537</v>
       </c>
       <c r="E3" t="n">
-        <v>301.240147710378</v>
+        <v>374.2922872007414</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838732</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557376</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.618228976066</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>1471.526139546295</v>
       </c>
       <c r="N3" t="n">
-        <v>2036.433443595207</v>
+        <v>1985.128818155985</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714992</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614861</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.33080581377</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492411</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863478</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1306.727660863478</v>
       </c>
       <c r="X3" t="n">
-        <v>1049.540387783372</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y3" t="n">
-        <v>870.2261708588791</v>
+        <v>943.2783103492425</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.2675733206192</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>680.2675733206192</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D4" t="n">
-        <v>524.6344602231339</v>
+        <v>841.5932941600438</v>
       </c>
       <c r="E4" t="n">
-        <v>369.0756480823364</v>
+        <v>686.0344820192463</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>360.4544933316648</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023661</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>249.4634900068635</v>
+        <v>1289.219023670586</v>
       </c>
       <c r="C5" t="n">
-        <v>249.4634900068635</v>
+        <v>1289.219023670586</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596591</v>
+        <v>1289.219023670586</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596591</v>
+        <v>886.6354987871302</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634774</v>
+        <v>469.741060317108</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>56.57830480511115</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1434.057092150838</v>
+        <v>1286.935244793078</v>
       </c>
       <c r="O5" t="n">
-        <v>1874.096693043167</v>
+        <v>1726.974845685406</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678799</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678799</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="U5" t="n">
-        <v>1752.516685113398</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="V5" t="n">
-        <v>1410.409875816916</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="W5" t="n">
-        <v>1039.410840785204</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="X5" t="n">
-        <v>649.9582357182604</v>
+        <v>1685.709732749985</v>
       </c>
       <c r="Y5" t="n">
-        <v>649.9582357182604</v>
+        <v>1289.219023670586</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021433</v>
+        <v>752.5718134969705</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622355</v>
+        <v>601.9175830570628</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837159</v>
+        <v>471.828615678543</v>
       </c>
       <c r="E6" t="n">
-        <v>375.0702200837159</v>
+        <v>335.3821247894307</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>210.9503186725625</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442697</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442697</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.618228976066</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.618228976066</v>
       </c>
       <c r="L6" t="n">
-        <v>714.382533420277</v>
+        <v>154.618228976066</v>
       </c>
       <c r="M6" t="n">
-        <v>714.382533420277</v>
+        <v>407.9705203262606</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.64131843037</v>
+        <v>921.5731989359502</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021351</v>
+        <v>1435.17587754564</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737748</v>
+        <v>1840.797246262037</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714992</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1960.897310689548</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1783.913498888456</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1573.850355567098</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1351.310353938165</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1121.193108071452</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675974</v>
+        <v>931.8860304214634</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431047</v>
+        <v>752.5718134969705</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>833.7537117207089</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>678.1205986232236</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>522.5617864824261</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>365.235851695399</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>196.9817977948446</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>332.7868169933348</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>66.80747181415899</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1623.046950069302</v>
+        <v>462.464857499824</v>
       </c>
       <c r="C8" t="n">
-        <v>1229.871448572232</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>844.4303197889001</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
         <v>56.43532157313638</v>
@@ -4808,19 +4808,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4835,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.541695780699</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.541695780699</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.541695780699</v>
+        <v>610.8466170372428</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>862.049323298462</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="C10" t="n">
-        <v>691.8442053644512</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D10" t="n">
-        <v>691.8442053644512</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>822.8077975561406</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>822.8077975561406</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>822.8077975561406</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>822.8077975561406</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>822.8077975561406</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>588.7274753391237</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>365.615414155767</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1547.389404957965</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C11" t="n">
-        <v>1226.01017860709</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D11" t="n">
-        <v>912.3653249699516</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>659.5040663152593</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F11" t="n">
-        <v>314.4059029914309</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914309</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341892</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="W11" t="n">
-        <v>2200.782309456373</v>
+        <v>2528.079890988294</v>
       </c>
       <c r="X11" t="n">
-        <v>2200.782309456373</v>
+        <v>2210.423561067545</v>
       </c>
       <c r="Y11" t="n">
-        <v>1876.087875523168</v>
+        <v>2109.634413445567</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.5463125075715</v>
+        <v>571.4129340497494</v>
       </c>
       <c r="C13" t="n">
-        <v>376.5463125075715</v>
+        <v>473.0040912619326</v>
       </c>
       <c r="D13" t="n">
-        <v>292.7094745562803</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616768</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208437</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.167348517031</v>
+        <v>1290.729964113346</v>
       </c>
       <c r="V13" t="n">
-        <v>924.984278484049</v>
+        <v>1096.546894080364</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614206</v>
+        <v>885.0127671577352</v>
       </c>
       <c r="X13" t="n">
-        <v>641.2738420898415</v>
+        <v>722.7287200869122</v>
       </c>
       <c r="Y13" t="n">
-        <v>489.9580560526789</v>
+        <v>571.4129340497494</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119022</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768146</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131008</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937467</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699184</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3026.287880663295</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.583553368906</v>
       </c>
       <c r="U14" t="n">
-        <v>2984.647095423698</v>
+        <v>2690.627098949698</v>
       </c>
       <c r="V14" t="n">
-        <v>2984.647095423698</v>
+        <v>2690.627098949698</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.444335538179</v>
+        <v>2690.627098949698</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.788005617429</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.093571684225</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>469.0185993450566</v>
+        <v>469.0185993450559</v>
       </c>
       <c r="C16" t="n">
-        <v>469.0185993450566</v>
+        <v>370.6097565572391</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621198</v>
+        <v>370.6097565572391</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675163</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675163</v>
+        <v>242.2591823507882</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5467,19 +5467,19 @@
         <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457743</v>
+        <v>988.1475398457737</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127925</v>
+        <v>793.9644698127918</v>
       </c>
       <c r="W16" t="n">
-        <v>582.430342890164</v>
+        <v>582.4303428901633</v>
       </c>
       <c r="X16" t="n">
-        <v>582.430342890164</v>
+        <v>582.4303428901633</v>
       </c>
       <c r="Y16" t="n">
-        <v>582.430342890164</v>
+        <v>582.4303428901633</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5534,10 +5534,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829236</v>
@@ -5546,19 +5546,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5610,7 +5610,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462926</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184709</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567349</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924236</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.202330875214</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.722613466195</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885601</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369577</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218808</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072693</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462929</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197453</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.973980501895</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,46 +6218,46 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614363</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388517</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753567</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236565</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6318,7 +6318,7 @@
         <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.334693965057</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6476,10 +6476,10 @@
         <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236565</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377513</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1504.441740534771</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>2160.21971174533</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>2160.21971174533</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,37 +6598,37 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993093</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.380725810812</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803401</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835546</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386352</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2293.032006377479</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2733.071607269808</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3081.259099401329</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3377.75678011726</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.75678011726</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939836</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380777</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.7472256969</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281944</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131756</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220726</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1500.624429827983</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>2156.402401038541</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>2156.402401038541</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="P33" t="n">
-        <v>2156.402401038541</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929739</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404881</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245277</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652552</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.624833259753</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407235</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.7304500837424</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.5551356023452</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>149.3901767122871</v>
       </c>
       <c r="L34" t="n">
-        <v>391.009579354136</v>
+        <v>313.5178165860868</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194702</v>
+        <v>499.8093949243508</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770949</v>
+        <v>794.6511495305426</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1033.381832577066</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1264.910118928628</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873661</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387763</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451837</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501596</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250224</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273715</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.314437140074</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.153225804582</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027503</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G35" t="n">
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.973980501895</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364861</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102859</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485499</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797591</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330085</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7266,7 +7266,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7500,13 +7500,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.831274102045</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>278.5901810446707</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184705</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567345</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879436</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924138</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222421</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960418</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343059</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655151</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072231</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788144</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>214.001836689618</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035438</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083986</v>
       </c>
       <c r="O3" t="n">
-        <v>232.4345549924656</v>
+        <v>183.6305080413566</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>400.1079634407339</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>454.0249590536338</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>330.4974637696134</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>348.298527453549</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083986</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431209</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>457.1386964627902</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8781,7 +8781,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>326.5064297756122</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9018,7 +9018,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9258,10 +9258,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9404,7 +9404,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987045</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,16 +9486,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>433.2773539239171</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9729,7 +9729,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>326.5064297756122</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
@@ -9966,10 +9966,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10206,10 +10206,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>320.9022357060376</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10443,10 +10443,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083338</v>
       </c>
       <c r="Q33" t="n">
-        <v>324.8070240426374</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475127</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10677,7 +10677,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>326.5064297756122</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
@@ -10914,10 +10914,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>347.309009847301</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>77.14673117174343</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372781</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362793</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>221.6662334481139</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993866</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.4932009668169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338894</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901679</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>188.8567181851971</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>89.20666022325143</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372781</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362793</v>
+        <v>14.89828761657169</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>62.02069299075777</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993866</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.116727086671073</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>40.53220620469588</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442477</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901679</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.907985046680551e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>685243.8007249221</v>
+        <v>685243.800724922</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775428.3658014337</v>
+        <v>775428.3658014338</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>486896.8808520635</v>
+        <v>486896.8808520634</v>
       </c>
       <c r="C2" t="n">
         <v>486896.8808520634</v>
       </c>
       <c r="D2" t="n">
-        <v>486896.8808520636</v>
+        <v>486896.8808520634</v>
       </c>
       <c r="E2" t="n">
-        <v>430269.363245882</v>
+        <v>430269.3632458814</v>
       </c>
       <c r="F2" t="n">
-        <v>430269.363245882</v>
+        <v>430269.3632458819</v>
       </c>
       <c r="G2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="H2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="I2" t="n">
         <v>486896.8808520628</v>
       </c>
       <c r="J2" t="n">
+        <v>486896.8808520631</v>
+      </c>
+      <c r="K2" t="n">
         <v>486896.8808520632</v>
       </c>
-      <c r="K2" t="n">
-        <v>486896.8808520633</v>
-      </c>
       <c r="L2" t="n">
-        <v>486896.8808520638</v>
+        <v>486896.880852063</v>
       </c>
       <c r="M2" t="n">
         <v>486896.8808520628</v>
       </c>
       <c r="N2" t="n">
-        <v>486896.8808520628</v>
+        <v>486896.8808520626</v>
       </c>
       <c r="O2" t="n">
-        <v>486896.8808520628</v>
+        <v>486896.8808520626</v>
       </c>
       <c r="P2" t="n">
-        <v>486896.8808520629</v>
+        <v>486896.8808520626</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340556</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401305</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.3255366819</v>
+        <v>47425.32553668186</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399297</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539643</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005332</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005332</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373754</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373754</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,7 +26445,7 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
@@ -26454,10 +26454,10 @@
         <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315428</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70801.52819588347</v>
+        <v>73949.87878265735</v>
       </c>
       <c r="C6" t="n">
-        <v>253006.4764877392</v>
+        <v>247808.5358167129</v>
       </c>
       <c r="D6" t="n">
-        <v>248143.1941938642</v>
+        <v>240406.9049704729</v>
       </c>
       <c r="E6" t="n">
-        <v>190876.2865482593</v>
+        <v>190666.5550015693</v>
       </c>
       <c r="F6" t="n">
-        <v>302998.848022304</v>
+        <v>302789.1164756143</v>
       </c>
       <c r="G6" t="n">
-        <v>259458.3739845415</v>
+        <v>259458.3739845417</v>
       </c>
       <c r="H6" t="n">
-        <v>306883.6995212234</v>
+        <v>306883.6995212235</v>
       </c>
       <c r="I6" t="n">
-        <v>306883.6995212235</v>
+        <v>306883.6995212236</v>
       </c>
       <c r="J6" t="n">
-        <v>93841.78192393831</v>
+        <v>100358.0670785111</v>
       </c>
       <c r="K6" t="n">
-        <v>300643.931118441</v>
+        <v>300643.9311184409</v>
       </c>
       <c r="L6" t="n">
-        <v>245461.3421838204</v>
+        <v>241412.5049733476</v>
       </c>
       <c r="M6" t="n">
-        <v>264682.8700616005</v>
+        <v>263631.1750504124</v>
       </c>
       <c r="N6" t="n">
-        <v>306883.6995212234</v>
+        <v>306883.6995212233</v>
       </c>
       <c r="O6" t="n">
-        <v>279116.0054784524</v>
+        <v>279116.005478452</v>
       </c>
       <c r="P6" t="n">
-        <v>306883.6995212236</v>
+        <v>306883.6995212233</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454232</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454232</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,34 +26802,34 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014445</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293151</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924553</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.5800495428748</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454232</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.6215418150631</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-1.059315299275408e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.126871304278</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085233</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454232</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.6215418150631</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>22.68131185395163</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>273.7564219016374</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>61.99025433061684</v>
+        <v>5.120224619642727</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.98956044860577</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>199.4351872317103</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>305.9179124608894</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,25 +27664,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>50.09571640609502</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13686614393959</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326046</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>257.4184037529242</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>249.5918563122383</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>31.16813548633684</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27907,19 +27907,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.51237585320052</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,19 +28020,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>198.7572293169389</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28606,31 +28606,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R17" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634529035</v>
+        <v>35.71049010668966</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28986,16 +28986,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634530428</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,16 +29229,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634528921</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>86.65052755599538</v>
+      </c>
+      <c r="Q29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P29" t="n">
-        <v>86.65052755599589</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683160613</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566499</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254088</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031897</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="36">
@@ -30141,40 +30141,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082765</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>128.2979821082773</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>35.7104901066877</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,37 +30615,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>35.71049010668915</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155843</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>133.189241499577</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>64.27678509189076</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454232</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454232</v>
       </c>
       <c r="O3" t="n">
-        <v>139.7469961035767</v>
+        <v>90.94294915246773</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>250.9894721029498</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>303.7235118127086</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4371169126952</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>255.911405404237</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454232</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454232</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>303.8905267322986</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35501,7 +35501,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>233.8188708867233</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257294</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488449</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35738,7 +35738,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257294</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
         <v>236.863807216752</v>
@@ -35817,13 +35817,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488449</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434252</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.421497456549</v>
+        <v>201.4959849287096</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,7 +36057,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682127</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,16 +36206,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>346.1939891046024</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716093</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36449,7 +36449,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>233.8188708867233</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716078</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272223</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>619.7932383009069</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36616,7 +36616,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625836</v>
+        <v>438.3550650625831</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36926,10 +36926,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>233.8188708867229</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>664.2959804238012</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765173</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837688</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="Q33" t="n">
-        <v>233.8188708867233</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029874997</v>
+        <v>297.8199541476685</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>241.1421040873978</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106678</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065875</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37397,7 +37397,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>233.8188708867233</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>316.4712935610694</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>223.8838015594797</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184298</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>260.2256450279863</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>118.3721477934991</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,7 +37950,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133992</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
